--- a/Datasets/Profile Variables.xlsx
+++ b/Datasets/Profile Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcory\Box\ADNI\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84F183-F972-44B9-957C-DFB677CD059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394E9A5-ED86-44B0-8E5D-2A1C3F8D5AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeless Variables" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
